--- a/TweetDeckSPFxFilter.xlsx
+++ b/TweetDeckSPFxFilter.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555B4C99-56FD-4923-AF9F-B9DC52D63194}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{555B4C99-56FD-4923-AF9F-B9DC52D63194}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{69C53A6F-D704-44F8-AC43-F0577499A3F6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="7868" xr2:uid="{D4EED72B-100F-4B3F-B409-921796D4733D}"/>
   </bookViews>
@@ -26,88 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>-#makeup</t>
-  </si>
-  <si>
-    <t>-#pyrotechnics</t>
-  </si>
-  <si>
-    <t>-#spfmakeup</t>
-  </si>
-  <si>
-    <t>-#spfxmua</t>
-  </si>
-  <si>
-    <t>-#artistreborn</t>
-  </si>
-  <si>
-    <t>-#tv</t>
-  </si>
-  <si>
-    <t>-#art</t>
-  </si>
-  <si>
-    <t>-#pyro</t>
-  </si>
-  <si>
-    <t>-#blood</t>
-  </si>
-  <si>
-    <t>-#Elementary</t>
-  </si>
-  <si>
-    <t>-#specialfx</t>
-  </si>
-  <si>
-    <t>-#LED</t>
-  </si>
-  <si>
-    <t>-#mua</t>
-  </si>
-  <si>
-    <t>-#artist</t>
-  </si>
-  <si>
-    <t>-#wounds</t>
-  </si>
-  <si>
-    <t>-#SharpFX</t>
-  </si>
-  <si>
-    <t>-#specialmakeupeffects</t>
-  </si>
-  <si>
-    <t>-#specialfxmakeup</t>
-  </si>
-  <si>
-    <t>-#makeupfx</t>
-  </si>
-  <si>
-    <t>-#makeupeffects</t>
-  </si>
-  <si>
-    <t>-#specialeffectsmakeup</t>
-  </si>
-  <si>
-    <t>-#specialmakeupfx</t>
-  </si>
-  <si>
-    <t>-#mufx</t>
-  </si>
-  <si>
-    <t>-#sfx</t>
-  </si>
-  <si>
-    <t>-#specialeffects</t>
-  </si>
-  <si>
-    <t>-#hollywood</t>
-  </si>
-  <si>
-    <t>-#behindthescenes</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Hashtags</t>
   </si>
@@ -119,6 +38,90 @@
   </si>
   <si>
     <t>webpart_o_matic</t>
+  </si>
+  <si>
+    <t>#art</t>
+  </si>
+  <si>
+    <t>#artist</t>
+  </si>
+  <si>
+    <t>#artistreborn</t>
+  </si>
+  <si>
+    <t>#behindthescenes</t>
+  </si>
+  <si>
+    <t>#blood</t>
+  </si>
+  <si>
+    <t>#Elementary</t>
+  </si>
+  <si>
+    <t>#hollywood</t>
+  </si>
+  <si>
+    <t>#LED</t>
+  </si>
+  <si>
+    <t>#makeup</t>
+  </si>
+  <si>
+    <t>#makeupeffects</t>
+  </si>
+  <si>
+    <t>#makeupfx</t>
+  </si>
+  <si>
+    <t>#mua</t>
+  </si>
+  <si>
+    <t>#mufx</t>
+  </si>
+  <si>
+    <t>#pyro</t>
+  </si>
+  <si>
+    <t>#pyrotechnics</t>
+  </si>
+  <si>
+    <t>#sfx</t>
+  </si>
+  <si>
+    <t>#SharpFX</t>
+  </si>
+  <si>
+    <t>#specialeffects</t>
+  </si>
+  <si>
+    <t>#specialeffectsmakeup</t>
+  </si>
+  <si>
+    <t>#specialfx</t>
+  </si>
+  <si>
+    <t>#specialfxmakeup</t>
+  </si>
+  <si>
+    <t>#specialmakeupeffects</t>
+  </si>
+  <si>
+    <t>#specialmakeupfx</t>
+  </si>
+  <si>
+    <t>#spfmakeup</t>
+  </si>
+  <si>
+    <t>#spfxmua</t>
+  </si>
+  <si>
+    <t>#tv</t>
+  </si>
+  <si>
+    <t>#wounds</t>
+  </si>
+  <si>
+    <t>#vfx</t>
   </si>
 </sst>
 </file>
@@ -185,8 +188,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0640A48-0979-4917-A033-4A15D1EFC155}" name="Hashtags" displayName="Hashtags" ref="A1:A28" totalsRowShown="0">
-  <autoFilter ref="A1:A28" xr:uid="{5DE9B0F4-9F3A-4D56-BC76-FEF2B0870465}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0640A48-0979-4917-A033-4A15D1EFC155}" name="Hashtags" displayName="Hashtags" ref="A1:A29" totalsRowShown="0">
+  <autoFilter ref="A1:A29" xr:uid="{5DE9B0F4-9F3A-4D56-BC76-FEF2B0870465}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A28">
     <sortCondition ref="A1:A28"/>
   </sortState>
@@ -507,7 +510,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -520,33 +523,33 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -561,7 +564,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -571,108 +574,113 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
       <c r="E30" s="2" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="136.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E31" s="3" t="str">
-        <f>CONCATENATE("#SPFx"," ", _xlfn.TEXTJOIN(" ", TRUE,Hashtags[]), IF(COUNTIF(From[],"*")&gt;0," -from:",""), _xlfn.TEXTJOIN(" -from:", TRUE, From[]))</f>
-        <v>#SPFx -#art -#artist -#artistreborn -#behindthescenes -#blood -#Elementary -#hollywood -#LED -#makeup -#makeupeffects -#makeupfx -#mua -#mufx -#pyro -#pyrotechnics -#sfx -#SharpFX -#specialeffects -#specialeffectsmakeup -#specialfx -#specialfxmakeup -#specialmakeupeffects -#specialmakeupfx -#spfmakeup -#spfxmua -#tv -#wounds -from:webpart_o_matic</v>
+        <f>CONCATENATE("#Office365Dev OR @OfficeDev OR from:OfficeDev OR #SPFx", IF(COUNTIF(Hashtags[],"*")&gt;0," -",""),_xlfn.TEXTJOIN(" -", TRUE,Hashtags[]), IF(COUNTIF(From[],"*")&gt;0," -from:",""), _xlfn.TEXTJOIN(" -from:", TRUE, From[]))</f>
+        <v>#Office365Dev OR @OfficeDev OR from:OfficeDev OR #SPFx -#art -#artist -#artistreborn -#behindthescenes -#blood -#Elementary -#hollywood -#LED -#makeup -#makeupeffects -#makeupfx -#mua -#mufx -#pyro -#pyrotechnics -#sfx -#SharpFX -#specialeffects -#specialeffectsmakeup -#specialfx -#specialfxmakeup -#specialmakeupeffects -#specialmakeupfx -#spfmakeup -#spfxmua -#tv -#wounds -#vfx -from:webpart_o_matic</v>
       </c>
     </row>
   </sheetData>

--- a/TweetDeckSPFxFilter.xlsx
+++ b/TweetDeckSPFxFilter.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{555B4C99-56FD-4923-AF9F-B9DC52D63194}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{69C53A6F-D704-44F8-AC43-F0577499A3F6}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:1_{555B4C99-56FD-4923-AF9F-B9DC52D63194}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{D00C0D8D-08E9-4CED-B98B-A2C10BAD907B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="7868" xr2:uid="{D4EED72B-100F-4B3F-B409-921796D4733D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="7875" xr2:uid="{D4EED72B-100F-4B3F-B409-921796D4733D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="SPFx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Hashtags</t>
   </si>
@@ -94,18 +94,12 @@
     <t>#specialeffects</t>
   </si>
   <si>
-    <t>#specialeffectsmakeup</t>
-  </si>
-  <si>
     <t>#specialfx</t>
   </si>
   <si>
     <t>#specialfxmakeup</t>
   </si>
   <si>
-    <t>#specialmakeupeffects</t>
-  </si>
-  <si>
     <t>#specialmakeupfx</t>
   </si>
   <si>
@@ -115,13 +109,49 @@
     <t>#spfxmua</t>
   </si>
   <si>
-    <t>#tv</t>
-  </si>
-  <si>
     <t>#wounds</t>
   </si>
   <si>
     <t>#vfx</t>
+  </si>
+  <si>
+    <t>#puppets</t>
+  </si>
+  <si>
+    <t>#horror</t>
+  </si>
+  <si>
+    <t>#thrillerthursday</t>
+  </si>
+  <si>
+    <t>#gross</t>
+  </si>
+  <si>
+    <t>#gore</t>
+  </si>
+  <si>
+    <t>#sfxmakeup</t>
+  </si>
+  <si>
+    <t>#makeupartist</t>
+  </si>
+  <si>
+    <t>#fxmakeup</t>
+  </si>
+  <si>
+    <t>#werewolf</t>
+  </si>
+  <si>
+    <t>#spfxmakeupartist</t>
+  </si>
+  <si>
+    <t>#sculpture</t>
+  </si>
+  <si>
+    <t>#spfxmakeup</t>
+  </si>
+  <si>
+    <t>Max lenght of Tweetdeck filter is 500 characters. Current filter lenght:</t>
   </si>
 </sst>
 </file>
@@ -174,7 +204,38 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -188,10 +249,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0640A48-0979-4917-A033-4A15D1EFC155}" name="Hashtags" displayName="Hashtags" ref="A1:A29" totalsRowShown="0">
-  <autoFilter ref="A1:A29" xr:uid="{5DE9B0F4-9F3A-4D56-BC76-FEF2B0870465}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A28">
-    <sortCondition ref="A1:A28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0640A48-0979-4917-A033-4A15D1EFC155}" name="Hashtags" displayName="Hashtags" ref="A4:A41" totalsRowShown="0">
+  <autoFilter ref="A4:A41" xr:uid="{5DE9B0F4-9F3A-4D56-BC76-FEF2B0870465}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:A45">
+    <sortCondition ref="A4"/>
   </sortState>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{07FE5F88-4618-46E1-B624-0AC0EAB51DE8}" name="Hashtags"/>
@@ -201,8 +262,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54075EC4-AB98-4CE7-B3C8-DDE036A51AC9}" name="From" displayName="From" ref="C1:C3" totalsRowShown="0">
-  <autoFilter ref="C1:C3" xr:uid="{7461D502-162F-4B94-B53B-6E6EFC335AB5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54075EC4-AB98-4CE7-B3C8-DDE036A51AC9}" name="From" displayName="From" ref="C4:C6" totalsRowShown="0">
+  <autoFilter ref="C4:C6" xr:uid="{7461D502-162F-4B94-B53B-6E6EFC335AB5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C5:C6">
+    <sortCondition ref="C4"/>
+  </sortState>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{19E4C2B1-E3AB-496C-8DB4-58076F9B613B}" name="From"/>
   </tableColumns>
@@ -507,183 +571,247 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BF21F4-AED5-49AE-95A8-10665F76FFD1}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="102.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.28515625" customWidth="1"/>
+    <col min="5" max="5" width="102.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="3" t="str">
+        <f>CONCATENATE("#Office365Dev OR @OfficeDev OR from:OfficeDev OR #SPFx", IF(COUNTIF(Hashtags[],"*")&gt;0," -",""),_xlfn.TEXTJOIN(" -", TRUE,Hashtags[]), IF(COUNTIF(From[],"*")&gt;0," -from:",")"), _xlfn.TEXTJOIN(" -from:", TRUE, From[]))</f>
+        <v>#Office365Dev OR @OfficeDev OR from:OfficeDev OR #SPFx -#art -#artist -#artistreborn -#behindthescenes -#blood -#Elementary -#fxmakeup -#gore -#gross -#hollywood -#horror -#LED -#makeup -#makeupartist -#makeupeffects -#makeupfx -#mua -#mufx -#puppets -#pyro -#pyrotechnics -#sculpture -#sfx -#sfxmakeup -#SharpFX -#specialeffects -#specialfx -#specialfxmakeup -#specialmakeupfx -#spfmakeup -#spfxmakeup -#spfxmakeupartist -#spfxmua -#thrillerthursday -#vfx -#werewolf -#wounds -from:webpart_o_matic</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="E4">
+        <f>LEN(E2)</f>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="E30" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="136.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E31" s="3" t="str">
-        <f>CONCATENATE("#Office365Dev OR @OfficeDev OR from:OfficeDev OR #SPFx", IF(COUNTIF(Hashtags[],"*")&gt;0," -",""),_xlfn.TEXTJOIN(" -", TRUE,Hashtags[]), IF(COUNTIF(From[],"*")&gt;0," -from:",""), _xlfn.TEXTJOIN(" -from:", TRUE, From[]))</f>
-        <v>#Office365Dev OR @OfficeDev OR from:OfficeDev OR #SPFx -#art -#artist -#artistreborn -#behindthescenes -#blood -#Elementary -#hollywood -#LED -#makeup -#makeupeffects -#makeupfx -#mua -#mufx -#pyro -#pyrotechnics -#sfx -#SharpFX -#specialeffects -#specialeffectsmakeup -#specialfx -#specialfxmakeup -#specialmakeupeffects -#specialmakeupfx -#spfmakeup -#spfxmua -#tv -#wounds -#vfx -from:webpart_o_matic</v>
-      </c>
-    </row>
   </sheetData>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>500</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>500</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="2">

--- a/TweetDeckSPFxFilter.xlsx
+++ b/TweetDeckSPFxFilter.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:1_{555B4C99-56FD-4923-AF9F-B9DC52D63194}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{D00C0D8D-08E9-4CED-B98B-A2C10BAD907B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17C7D041-B126-44BF-824B-007B6CB1BF0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="7875" xr2:uid="{D4EED72B-100F-4B3F-B409-921796D4733D}"/>
+    <workbookView xWindow="23895" yWindow="6540" windowWidth="28800" windowHeight="15240" xr2:uid="{D4EED72B-100F-4B3F-B409-921796D4733D}"/>
   </bookViews>
   <sheets>
     <sheet name="SPFx" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Hashtags</t>
   </si>
@@ -55,9 +57,6 @@
     <t>#blood</t>
   </si>
   <si>
-    <t>#Elementary</t>
-  </si>
-  <si>
     <t>#hollywood</t>
   </si>
   <si>
@@ -109,21 +108,12 @@
     <t>#spfxmua</t>
   </si>
   <si>
-    <t>#wounds</t>
-  </si>
-  <si>
-    <t>#vfx</t>
-  </si>
-  <si>
     <t>#puppets</t>
   </si>
   <si>
     <t>#horror</t>
   </si>
   <si>
-    <t>#thrillerthursday</t>
-  </si>
-  <si>
     <t>#gross</t>
   </si>
   <si>
@@ -139,9 +129,6 @@
     <t>#fxmakeup</t>
   </si>
   <si>
-    <t>#werewolf</t>
-  </si>
-  <si>
     <t>#spfxmakeupartist</t>
   </si>
   <si>
@@ -152,6 +139,12 @@
   </si>
   <si>
     <t>Max lenght of Tweetdeck filter is 500 characters. Current filter lenght:</t>
+  </si>
+  <si>
+    <t>#twd</t>
+  </si>
+  <si>
+    <t>#fx</t>
   </si>
 </sst>
 </file>
@@ -202,9 +195,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -225,16 +218,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -249,10 +232,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0640A48-0979-4917-A033-4A15D1EFC155}" name="Hashtags" displayName="Hashtags" ref="A4:A41" totalsRowShown="0">
-  <autoFilter ref="A4:A41" xr:uid="{5DE9B0F4-9F3A-4D56-BC76-FEF2B0870465}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:A45">
-    <sortCondition ref="A4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0640A48-0979-4917-A033-4A15D1EFC155}" name="Hashtags" displayName="Hashtags" ref="A4:A39" totalsRowShown="0">
+  <autoFilter ref="A4:A39" xr:uid="{5DE9B0F4-9F3A-4D56-BC76-FEF2B0870465}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:A39">
+    <sortCondition ref="A4:A39"/>
   </sortState>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{07FE5F88-4618-46E1-B624-0AC0EAB51DE8}" name="Hashtags"/>
@@ -262,9 +245,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54075EC4-AB98-4CE7-B3C8-DDE036A51AC9}" name="From" displayName="From" ref="C4:C6" totalsRowShown="0">
-  <autoFilter ref="C4:C6" xr:uid="{7461D502-162F-4B94-B53B-6E6EFC335AB5}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C5:C6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54075EC4-AB98-4CE7-B3C8-DDE036A51AC9}" name="From" displayName="From" ref="C4:C5" totalsRowShown="0">
+  <autoFilter ref="C4:C5" xr:uid="{7461D502-162F-4B94-B53B-6E6EFC335AB5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C5">
     <sortCondition ref="C4"/>
   </sortState>
   <tableColumns count="1">
@@ -275,7 +258,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -571,13 +554,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BF21F4-AED5-49AE-95A8-10665F76FFD1}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="1.28515625" customWidth="1"/>
@@ -594,13 +577,13 @@
     </row>
     <row r="2" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E2" s="3" t="str">
-        <f>CONCATENATE("#Office365Dev OR @OfficeDev OR from:OfficeDev OR #SPFx", IF(COUNTIF(Hashtags[],"*")&gt;0," -",""),_xlfn.TEXTJOIN(" -", TRUE,Hashtags[]), IF(COUNTIF(From[],"*")&gt;0," -from:",")"), _xlfn.TEXTJOIN(" -from:", TRUE, From[]))</f>
-        <v>#Office365Dev OR @OfficeDev OR from:OfficeDev OR #SPFx -#art -#artist -#artistreborn -#behindthescenes -#blood -#Elementary -#fxmakeup -#gore -#gross -#hollywood -#horror -#LED -#makeup -#makeupartist -#makeupeffects -#makeupfx -#mua -#mufx -#puppets -#pyro -#pyrotechnics -#sculpture -#sfx -#sfxmakeup -#SharpFX -#specialeffects -#specialfx -#specialfxmakeup -#specialmakeupfx -#spfmakeup -#spfxmakeup -#spfxmakeupartist -#spfxmua -#thrillerthursday -#vfx -#werewolf -#wounds -from:webpart_o_matic</v>
+        <f>CONCATENATE("#Microsoft365dev OR #Office365Dev OR @OfficeDev OR @Microsoft365Dev OR from:Microsoft365Dev OR #SPFx", IF(COUNTIF(Hashtags[],"*")&gt;0," -",""),_xlfn.TEXTJOIN(" -", TRUE,Hashtags[]), IF(COUNTIF(From[],"*")&gt;0," -from:",")"), _xlfn.TEXTJOIN(" -from:", TRUE, From[]))</f>
+        <v>#Microsoft365dev OR #Office365Dev OR @OfficeDev OR @Microsoft365Dev OR from:Microsoft365Dev OR #SPFx -#art -#artist -#artistreborn -#behindthescenes -#blood -#fx -#fxmakeup -#gore -#gross -#hollywood -#horror -#LED -#makeup -#makeupartist -#makeupeffects -#makeupfx -#mua -#mufx -#puppets -#pyro -#pyrotechnics -#sculpture -#sfx -#sfxmakeup -#SharpFX -#specialeffects -#specialfx -#specialfxmakeup -#specialmakeupfx -#spfmakeup -#spfxmakeup -#spfxmakeupartist -#spfxmua -#twd -from:webpart_o_matic</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -612,7 +595,7 @@
       </c>
       <c r="E4">
         <f>LEN(E2)</f>
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -645,170 +628,155 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>500</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>500</formula>
     </cfRule>
   </conditionalFormatting>
